--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Zyzzfit/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056C0A2-6B82-A34D-BE82-18D6932D3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0BD9D-47E6-1942-A10A-245C8F2AACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginLogoutController" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="DashboardController" sheetId="5" r:id="rId5"/>
     <sheet name="DashboardGUI" sheetId="6" r:id="rId6"/>
     <sheet name="User" sheetId="7" r:id="rId7"/>
+    <sheet name="MyProfileController" sheetId="8" r:id="rId8"/>
+    <sheet name="MyProfileGUI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="303">
   <si>
     <t>Number</t>
   </si>
@@ -987,9 +989,6 @@
     <t>The My Workouts window is displayed and dashboard GUI closes.</t>
   </si>
   <si>
-    <t>My profile GUI is displayed, Dashboard is kept open.</t>
-  </si>
-  <si>
     <t>My Profile window is clicked on by user.</t>
   </si>
   <si>
@@ -1006,6 +1005,178 @@
   </si>
   <si>
     <t>User leaves Age field blank.</t>
+  </si>
+  <si>
+    <t>Calorie intake is updated if user has changed Calorie goal, age, weight, height, or gender.</t>
+  </si>
+  <si>
+    <t>Application changes workout if user has changed number of days they are working out</t>
+  </si>
+  <si>
+    <t>My profile GUI is displayed, Dashboard is closed.</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ageEntry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.weightEntry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.heightEntry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.trainingDaysEntry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.clickedGoal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.clickedGender</t>
+    </r>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Select Tuesday and Thursday</t>
+  </si>
+  <si>
+    <t>Age is updated in user object</t>
+  </si>
+  <si>
+    <t>Weight is updated in user object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calorie goal is updated in user Object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training days are updated in user object. </t>
+  </si>
+  <si>
+    <t>The application will displays an error message saying "Field left blank" if user has left any field blank.</t>
+  </si>
+  <si>
+    <t>CaloriesResult</t>
+  </si>
+  <si>
+    <t>Age field is left blank and 
+user presses save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup message saying "Error field left
+ blank" is displayed. </t>
+  </si>
+  <si>
+    <t>User selects Gain option</t>
+  </si>
+  <si>
+    <t>Calorie intake is updated in dashboard GUI</t>
+  </si>
+  <si>
+    <t>User changes age after click save button</t>
+  </si>
+  <si>
+    <t>User changes weight after click save button</t>
+  </si>
+  <si>
+    <t>User changes height after click save button</t>
+  </si>
+  <si>
+    <t>User changes gender after click save button</t>
+  </si>
+  <si>
+    <t>User changes calorie goal after click save button</t>
+  </si>
+  <si>
+    <t>User changes training days after click save button</t>
+  </si>
+  <si>
+    <t>Error message "Please pick atleast two days 
+to train" is displayed</t>
+  </si>
+  <si>
+    <t>Error message "Please pick atleast two 
+days to train" is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User changes days of their workout </t>
+  </si>
+  <si>
+    <t>Application modifies user's exercise object to fit user's schedule</t>
+  </si>
+  <si>
+    <t>The application passes information entered in user information window to dashboard controller to successfully create a user and exercise object for user</t>
+  </si>
+  <si>
+    <t>dashboard controller receives all the data</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1301,6 +1472,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,7 +2440,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>130</v>
@@ -2587,7 +2762,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2942,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FDF198-0AE8-9344-A381-3C7671A34492}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3213,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBECEF-586C-E445-B3B4-3FF4ADE3D7AC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="E2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3305,7 +3480,7 @@
         <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>11</v>
@@ -3431,7 +3606,7 @@
         <v>6.8</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -3454,7 +3629,7 @@
         <v>6.9</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
         <v>217</v>
@@ -3463,10 +3638,10 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>11</v>
@@ -3486,10 +3661,10 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>31</v>
@@ -3505,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C151468A-6945-5B45-B321-0C32F764695E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3726,4 +3901,581 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE4650-FF6A-5F4F-9D6E-367B9F6A5FCF}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="70.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="29">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="29">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="29">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8.4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8.9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8.1010000000000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8.14</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA6B457-B020-7946-9056-571E3E548F07}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="70.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="40">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="29">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="29">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="G12" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Zyzzfit/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0BD9D-47E6-1942-A10A-245C8F2AACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE09C9-5633-2645-AEC0-5D90CA05CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginLogoutController" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="306">
   <si>
     <t>Number</t>
   </si>
@@ -1167,16 +1167,28 @@
 days to train" is displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">User changes days of their workout </t>
-  </si>
-  <si>
-    <t>Application modifies user's exercise object to fit user's schedule</t>
-  </si>
-  <si>
     <t>The application passes information entered in user information window to dashboard controller to successfully create a user and exercise object for user</t>
   </si>
   <si>
     <t>dashboard controller receives all the data</t>
+  </si>
+  <si>
+    <t>My Profile GUI displays the pre-selected days that are already present in user's training days</t>
+  </si>
+  <si>
+    <t>Monday Tuesday are in user's
+data</t>
+  </si>
+  <si>
+    <t>My Profile GUI diplays buttons and selects the ones that are already in user's training days</t>
+  </si>
+  <si>
+    <t>User changes days of their workout to 
+Tuesday and Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application modifies user's exercise object to fit user's schedule and their training days
+to Tuesday and Wednesday. </t>
   </si>
 </sst>
 </file>
@@ -3907,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE4650-FF6A-5F4F-9D6E-367B9F6A5FCF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3916,7 +3928,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="70.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4216,21 +4228,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8.15</v>
+      </c>
       <c r="B14" t="s">
         <v>270</v>
       </c>
       <c r="C14" t="s">
         <v>251</v>
       </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" t="s">
-        <v>300</v>
-      </c>
-      <c r="F14" t="s">
-        <v>300</v>
+      <c r="D14" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>11</v>
@@ -4246,10 +4261,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA6B457-B020-7946-9056-571E3E548F07}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4257,7 +4272,7 @@
     <col min="2" max="2" width="79.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -4418,62 +4433,85 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" t="s">
         <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9.9</v>
+      </c>
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="G13" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Zyzzfit/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE09C9-5633-2645-AEC0-5D90CA05CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC0576-ECDF-934E-905B-320D70948BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="11" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginLogoutController" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="User" sheetId="7" r:id="rId7"/>
     <sheet name="MyProfileController" sheetId="8" r:id="rId8"/>
     <sheet name="MyProfileGUI" sheetId="9" r:id="rId9"/>
+    <sheet name="MyWorkoutController" sheetId="10" r:id="rId10"/>
+    <sheet name="MyWorkoutGUI" sheetId="11" r:id="rId11"/>
+    <sheet name="EditExerciseController" sheetId="12" r:id="rId12"/>
+    <sheet name="EditExerciseGUI" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="362">
   <si>
     <t>Number</t>
   </si>
@@ -1189,6 +1193,181 @@
   <si>
     <t xml:space="preserve">Application modifies user's exercise object to fit user's schedule and their training days
 to Tuesday and Wednesday. </t>
+  </si>
+  <si>
+    <t>My Workouts GUI is created and displayed after createMyWorkoutsGUI is called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard controller is created and displayed after createDashboardController function is called. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Profile controller is created and displayed after createMyProfileController function is called. </t>
+  </si>
+  <si>
+    <t>Suggestion is created for user by randomly choosing a piece of text from text file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditExercise controller is created and displayed after createEditExerciseController function is called.
+My Workouts GUI is also closed.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddExercise controller is created and displayed after createAddExerciseController function is called.
+My Workouts GUI is also closed.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise is removed from exercise object after removeExercise function is called. </t>
+  </si>
+  <si>
+    <t>Suggestion frame is displayed after opening MyWorkoutsGUI</t>
+  </si>
+  <si>
+    <t>Menu frame is displayed with three buttons. One for dashboard 
+, one for my workouts, and one for logout button afer user opens MyWorkoutsGUI</t>
+  </si>
+  <si>
+    <t>Workout frame is displayed after user open myWorkouts GUI</t>
+  </si>
+  <si>
+    <t>User chooses an exercise</t>
+  </si>
+  <si>
+    <t>User chooses an exercise and clicks remove button</t>
+  </si>
+  <si>
+    <t>User can toggle workouts displayed by click buttons for each workout</t>
+  </si>
+  <si>
+    <t>Changes are pushed to database by dashboard controller when logout button is pushed. 
+The window is the closed.</t>
+  </si>
+  <si>
+    <t>Edit exercise GUI is created and displayed after the function createEditExerciseGUI iscalled.</t>
+  </si>
+  <si>
+    <t>myWorkoutsGUIObject</t>
+  </si>
+  <si>
+    <t>myProfileControllerObject</t>
+  </si>
+  <si>
+    <t>dashboardControllerObject</t>
+  </si>
+  <si>
+    <t>editExerciseControllerObject</t>
+  </si>
+  <si>
+    <t>AddExerciseControllerObject</t>
+  </si>
+  <si>
+    <t>myWorkoutsGUI, self.userObject and self.exerciseObject</t>
+  </si>
+  <si>
+    <t>myWorkouts GUI is displayed and my Workouts controller is created</t>
+  </si>
+  <si>
+    <t>myProfile GUI is displayed and my profile controller is created</t>
+  </si>
+  <si>
+    <t>"Try to keep compound movements in the beginning
+ of a workout.\nSome examples of compound Movements are Bench Press, Deadlift, Squat, and PullUps." is returned</t>
+  </si>
+  <si>
+    <t>edit exercise GUI is displayed and edit exercise controller is created</t>
+  </si>
+  <si>
+    <t>add exercise GUI is displayed and add exercise controller is created</t>
+  </si>
+  <si>
+    <t>exerciseName = "Bench Press"</t>
+  </si>
+  <si>
+    <t>Bench press is removed from exerciseData dict</t>
+  </si>
+  <si>
+    <t>menuFrame</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>self.workouts</t>
+  </si>
+  <si>
+    <t>self.button</t>
+  </si>
+  <si>
+    <t>self.loginLogoutControllerObject</t>
+  </si>
+  <si>
+    <t>Bench Press</t>
+  </si>
+  <si>
+    <t>BenchPress</t>
+  </si>
+  <si>
+    <t>suggestion frame is displayed to user with suggestion.</t>
+  </si>
+  <si>
+    <t>Workout frame is displayed with workout for current day (Thursday) and correct workout name, sets,
+ reps, max and original weight</t>
+  </si>
+  <si>
+    <t>Exercise "Bench Press" is highlighted</t>
+  </si>
+  <si>
+    <t>Bench press is removed from list of workouts.</t>
+  </si>
+  <si>
+    <t>Workout for specific day is displayed after user clicks button pertaining to the day of the week.</t>
+  </si>
+  <si>
+    <t>Dashboard controller function logoutPushChangesToDatabase is
+ called and changes are pushed to database.</t>
+  </si>
+  <si>
+    <t>editExerciseGUIObject</t>
+  </si>
+  <si>
+    <t>self.compareExerciseObjects</t>
+  </si>
+  <si>
+    <t>user changes sets for bench press</t>
+  </si>
+  <si>
+    <t>Set is updated for Bench Press exercise</t>
+  </si>
+  <si>
+    <t>exercise object is updated if user changes sets</t>
+  </si>
+  <si>
+    <t>exercise object is updated if user changes reps</t>
+  </si>
+  <si>
+    <t>exercise object is updated if user changes max weight</t>
+  </si>
+  <si>
+    <t>exercise object is updated if user changes original weight</t>
+  </si>
+  <si>
+    <t>user changes reps for bench press</t>
+  </si>
+  <si>
+    <t>user changes max weight for bench press</t>
+  </si>
+  <si>
+    <t>user changes original weight for bench press</t>
+  </si>
+  <si>
+    <t>reps is updated for Bench Press exercise</t>
+  </si>
+  <si>
+    <t>max weigth is updated for Bench Press exercise</t>
+  </si>
+  <si>
+    <t>orignal weight is updated for Bench Press exercise</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1488,6 +1667,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2308,6 +2490,565 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D98F85-DE49-3045-8B59-61FC79636BB8}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="81.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="43" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335882EE-48B4-384E-9B19-AC6920EE0DC2}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD772FFE-34B8-604A-BFE5-0F93E3F4DFB7}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="57.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E4D34-438A-934D-9B08-F3D586BC2629}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3441BA9B-014F-634C-8B5A-8FBC562D353F}">
   <dimension ref="A1:G8"/>
@@ -3129,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FDF198-0AE8-9344-A381-3C7671A34492}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBECEF-586C-E445-B3B4-3FF4ADE3D7AC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="D2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3919,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE4650-FF6A-5F4F-9D6E-367B9F6A5FCF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4264,7 +5005,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Zyzzfit/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC0576-ECDF-934E-905B-320D70948BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499E25C-617C-604D-86CB-C290FBF18326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="11" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="382">
   <si>
     <t>Number</t>
   </si>
@@ -1369,12 +1369,77 @@
   <si>
     <t>orignal weight is updated for Bench Press exercise</t>
   </si>
+  <si>
+    <t xml:space="preserve">Menu frame is displayed with sets label and entry, reps entry and entry, original weight label and entry, 
+and max weights label and entry, and save and cancel button after editExerciseGUI is opened. </t>
+  </si>
+  <si>
+    <t>sets, reps, max and orginal weight is gotten and and exercise object is created and compared after handleSaveInformationEvent function is called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditExercise window is closed and myWorkoutsGUI is opened after closeWindow function
+is called. </t>
+  </si>
+  <si>
+    <t>User can enter sets</t>
+  </si>
+  <si>
+    <t>User can enter reps</t>
+  </si>
+  <si>
+    <t>User can enter original weight</t>
+  </si>
+  <si>
+    <t>User can enter max weight</t>
+  </si>
+  <si>
+    <t>setsis left blank</t>
+  </si>
+  <si>
+    <t>setsEntry</t>
+  </si>
+  <si>
+    <t>repsEntry</t>
+  </si>
+  <si>
+    <t>MaxWeightEntry</t>
+  </si>
+  <si>
+    <t>originalWeightEntry</t>
+  </si>
+  <si>
+    <t>sets = 3, reps=10, 
+original weight = 100, 
+max weight = 200</t>
+  </si>
+  <si>
+    <t>user enters reps</t>
+  </si>
+  <si>
+    <t>user enters sets</t>
+  </si>
+  <si>
+    <t>user enters original weight</t>
+  </si>
+  <si>
+    <t>user enters max weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu frame is displayed with sets label and entry, reps entry and entry, original weight label and entry, 
+and max weights label and entry, and save and cancel button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditExercise window is closed and myWorkoutsGUI is opened </t>
+  </si>
+  <si>
+    <t>compareExerciseObjects function in editExerciseController is called if no field is left blank.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1458,8 +1523,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,6 +1556,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1578,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1670,6 +1745,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2492,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D98F85-DE49-3045-8B59-61FC79636BB8}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2590,7 @@
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2527,7 +2610,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10.1</v>
+      </c>
       <c r="B2" t="s">
         <v>306</v>
       </c>
@@ -2547,7 +2633,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10.199999999999999</v>
+      </c>
       <c r="B3" t="s">
         <v>308</v>
       </c>
@@ -2567,7 +2656,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10.3</v>
+      </c>
       <c r="B4" t="s">
         <v>307</v>
       </c>
@@ -2587,7 +2679,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10.4</v>
+      </c>
       <c r="B5" t="s">
         <v>309</v>
       </c>
@@ -2607,7 +2702,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10.5</v>
+      </c>
       <c r="B6" s="20" t="s">
         <v>310</v>
       </c>
@@ -2624,7 +2722,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10.6</v>
+      </c>
       <c r="B7" s="20" t="s">
         <v>311</v>
       </c>
@@ -2644,7 +2745,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10.7</v>
+      </c>
       <c r="B8" t="s">
         <v>312</v>
       </c>
@@ -2664,7 +2768,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10.8</v>
+      </c>
       <c r="B9" t="s">
         <v>190</v>
       </c>
@@ -2694,7 +2801,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2730,6 +2837,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11.1</v>
+      </c>
       <c r="B2" s="20" t="s">
         <v>314</v>
       </c>
@@ -2750,6 +2860,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11.2</v>
+      </c>
       <c r="B3" t="s">
         <v>263</v>
       </c>
@@ -2770,6 +2883,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11.3</v>
+      </c>
       <c r="B4" t="s">
         <v>313</v>
       </c>
@@ -2790,6 +2906,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11.4</v>
+      </c>
       <c r="B5" t="s">
         <v>315</v>
       </c>
@@ -2810,6 +2929,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11.5</v>
+      </c>
       <c r="B6" t="s">
         <v>316</v>
       </c>
@@ -2830,6 +2952,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11.6</v>
+      </c>
       <c r="B7" t="s">
         <v>317</v>
       </c>
@@ -2850,6 +2975,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11.7</v>
+      </c>
       <c r="B8" t="s">
         <v>318</v>
       </c>
@@ -2870,6 +2998,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11.8</v>
+      </c>
       <c r="B9" s="20" t="s">
         <v>319</v>
       </c>
@@ -2896,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD772FFE-34B8-604A-BFE5-0F93E3F4DFB7}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2910,7 +3041,7 @@
     <col min="5" max="6" width="57.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2930,7 +3061,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12.1</v>
+      </c>
       <c r="B2" s="20" t="s">
         <v>320</v>
       </c>
@@ -2950,14 +3084,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12.2</v>
+      </c>
       <c r="B3" t="s">
         <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E3" t="s">
@@ -2970,14 +3107,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12.3</v>
+      </c>
       <c r="B4" t="s">
         <v>353</v>
       </c>
       <c r="C4" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="46" t="s">
         <v>356</v>
       </c>
       <c r="E4" t="s">
@@ -2990,14 +3130,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12.4</v>
+      </c>
       <c r="B5" t="s">
         <v>354</v>
       </c>
       <c r="C5" t="s">
         <v>349</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="46" t="s">
         <v>357</v>
       </c>
       <c r="E5" t="s">
@@ -3010,14 +3153,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12.5</v>
+      </c>
       <c r="B6" t="s">
         <v>355</v>
       </c>
       <c r="C6" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="46" t="s">
         <v>358</v>
       </c>
       <c r="E6" t="s">
@@ -3037,14 +3183,226 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E4D34-438A-934D-9B08-F3D586BC2629}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>13.1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13.2</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13.3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13.6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13.8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3515,7 +3873,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G15"/>
+      <selection activeCell="B13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4141,7 +4499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBECEF-586C-E445-B3B4-3FF4ADE3D7AC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5005,7 +5363,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5244,7 +5602,27 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="19"/>
+      <c r="A11">
+        <v>9.1010000000000009</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohernandez/Desktop/Zyzzfit/TestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499E25C-617C-604D-86CB-C290FBF18326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C1310-2C58-4840-9FE3-8BA1730F0A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="11" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="3" activeTab="15" xr2:uid="{5A913C3F-99A5-7E42-BB47-9EA3B01C469E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginLogoutController" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="MyWorkoutGUI" sheetId="11" r:id="rId11"/>
     <sheet name="EditExerciseController" sheetId="12" r:id="rId12"/>
     <sheet name="EditExerciseGUI" sheetId="13" r:id="rId13"/>
+    <sheet name="AddExerciseController" sheetId="14" r:id="rId14"/>
+    <sheet name="AddControllerGUI" sheetId="15" r:id="rId15"/>
+    <sheet name="DatabaseManager" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="500">
   <si>
     <t>Number</t>
   </si>
@@ -182,9 +185,6 @@
     <t xml:space="preserve">User and exercise object is created </t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>User and exercise obejct</t>
   </si>
   <si>
@@ -650,9 +650,6 @@
     <t>Username:ricardoh19, securityquestion answer: pizza</t>
   </si>
   <si>
-    <t>Information is not compared, no pushes to database.</t>
-  </si>
-  <si>
     <t>User can enter username</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
   </si>
   <si>
     <t>Changes are pushed to database by loginlogout Controller Function</t>
-  </si>
-  <si>
-    <t>Changes are not pushed to database by loginlogout Controller function</t>
   </si>
   <si>
     <t>2858 Calories</t>
@@ -1005,9 +999,6 @@
     <t>Date frame is displayed with current date as Thursday, March 25</t>
   </si>
   <si>
-    <t>Dashboard controller function logoutPushChangesToDatabase is not called .</t>
-  </si>
-  <si>
     <t>User leaves Age field blank.</t>
   </si>
   <si>
@@ -1434,12 +1425,534 @@
   <si>
     <t>compareExerciseObjects function in editExerciseController is called if no field is left blank.</t>
   </si>
+  <si>
+    <t>Add exercise GUI is created and displayed after the function createAddExerciseGUI is called.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of exercises pertaining to body part is returned. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercise Is added to exerciseData and addExercise GUI is closed and 
+myWorkouts GUI is displayed after addExercise function is called. </t>
+  </si>
+  <si>
+    <t>Check if database exists</t>
+  </si>
+  <si>
+    <t>Check if System creates a database if database does not exist</t>
+  </si>
+  <si>
+    <t>Check if table exists</t>
+  </si>
+  <si>
+    <t>Check if table is created if no tables exists</t>
+  </si>
+  <si>
+    <t>Check If database gets User data</t>
+  </si>
+  <si>
+    <t>Database ZyzzfitDB created successfully</t>
+  </si>
+  <si>
+    <t>Table is created successfully</t>
+  </si>
+  <si>
+    <t>Table already exists</t>
+  </si>
+  <si>
+    <t>Check if database gets all exercise data from database</t>
+  </si>
+  <si>
+    <t>Check if database gets all user exercise data from database</t>
+  </si>
+  <si>
+    <t>Check if database gets all user exercise junction data from database</t>
+  </si>
+  <si>
+    <t>Check if database gets all training day data from database</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into User table successfully</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into Training day table successfully</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into Exercises table successfully</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into Exercises table from exercises text file successfully</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into UserExerciseInfo table successfully</t>
+  </si>
+  <si>
+    <t>Check if data is inserted into UserExerciseJunction table successfully</t>
+  </si>
+  <si>
+    <t>Check if password is successfully updated in User table after user changes password</t>
+  </si>
+  <si>
+    <t>Check if age is successfully updated in User table after user changes age</t>
+  </si>
+  <si>
+    <t>Check if weight is successfully updated in User table after user changes weight</t>
+  </si>
+  <si>
+    <t>Check if height is successfully updated in User table after user changes height</t>
+  </si>
+  <si>
+    <t>Check if gender is successfully updated in User table after user changes gender</t>
+  </si>
+  <si>
+    <t>Check if calorie goal is successfully updated in User table after user changes calorie goal</t>
+  </si>
+  <si>
+    <t>Check if sets of a specific exercise is updated after user changes it</t>
+  </si>
+  <si>
+    <t>Check if reps of a specific exercise is updated after user changes it</t>
+  </si>
+  <si>
+    <t>Check if max weight of a specific exercise is updated after user changes it</t>
+  </si>
+  <si>
+    <t>Check if original weight of a specific exercise is updated after user changes it</t>
+  </si>
+  <si>
+    <t>Check is exercise if deleted from database after user deletes it</t>
+  </si>
+  <si>
+    <t>Check if training days of a specific user is deleted from database after user 
+changes their training days</t>
+  </si>
+  <si>
+    <t>Menu frame is displayed with three option menus, One for body part, second one for exercise, and third one for day and enter or cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can choose a training day for exercise. </t>
+  </si>
+  <si>
+    <t>User can choose an appropriate exercise 
+after choosing a body part and clicking enter button.</t>
+  </si>
+  <si>
+    <t>addExerciseGUIObject</t>
+  </si>
+  <si>
+    <t>allExercisesList</t>
+  </si>
+  <si>
+    <t>addExercise()</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>['Bench Press'] is list of all exercises that are chest is returned</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>"Bench Press'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'Wednesday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>addExerciseGUI</t>
+    </r>
+  </si>
+  <si>
+    <t>addExercise function is called</t>
+  </si>
+  <si>
+    <t>self.bodyPartEntry</t>
+  </si>
+  <si>
+    <t>self.trainingDayEntry</t>
+  </si>
+  <si>
+    <t>User leaves a field blank
+ and clicks save button</t>
+  </si>
+  <si>
+    <t>"Wednesday"</t>
+  </si>
+  <si>
+    <t>"chest"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User chooses chest as body part </t>
+  </si>
+  <si>
+    <t>User can choose Wednesday as training day for that specific
+exercise.</t>
+  </si>
+  <si>
+    <t>System is using  ZyzzfitDB</t>
+  </si>
+  <si>
+    <t>getDatabaseUserData()</t>
+  </si>
+  <si>
+    <t>List of all data in User table is returned</t>
+  </si>
+  <si>
+    <t>List of all data in Exercises table is returned</t>
+  </si>
+  <si>
+    <t>getDatabaseExerciseData()</t>
+  </si>
+  <si>
+    <t>getDatabaseUserExerciseData()</t>
+  </si>
+  <si>
+    <t>getDatabaseUserExerciseJunctionData()</t>
+  </si>
+  <si>
+    <t>getTrainingDays()</t>
+  </si>
+  <si>
+    <t>List of all data in UserExerciseInfo table is returned</t>
+  </si>
+  <si>
+    <t>List of all data in UserExerciseJunctiontable is returned</t>
+  </si>
+  <si>
+    <t>List of all data in TrainingDays table is returned</t>
+  </si>
+  <si>
+    <t>insertDatabaseUserData()</t>
+  </si>
+  <si>
+    <t>insertTrainingDays()</t>
+  </si>
+  <si>
+    <t>insertDatabaseExerciseData()</t>
+  </si>
+  <si>
+    <t>insertAllExercisesIntoDatabase()</t>
+  </si>
+  <si>
+    <t>insertDatabaseUserExerciseData()</t>
+  </si>
+  <si>
+    <t>insertDatabaseUserExerciseJunction()</t>
+  </si>
+  <si>
+    <r>
+      <t>trainingDay=wednesday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>userId=2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>exerciseName=Bench Press</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>bodyPart=chest</t>
+    </r>
+  </si>
+  <si>
+    <t>userId=2, sets=3 repetitions=10, maxWeight=0 originalWeight=0</t>
+  </si>
+  <si>
+    <t>updateDatabaseUserData()</t>
+  </si>
+  <si>
+    <t>updateUserAge()</t>
+  </si>
+  <si>
+    <t>updateUserWeight()</t>
+  </si>
+  <si>
+    <t>uipdateUserHeight()</t>
+  </si>
+  <si>
+    <t>updateUserGender()</t>
+  </si>
+  <si>
+    <t>updateUserCalorieGoal()</t>
+  </si>
+  <si>
+    <t>updateUserExerciseSets()</t>
+  </si>
+  <si>
+    <t>updateUserExerciseReps()</t>
+  </si>
+  <si>
+    <t>udpateUserExerciseMaxWeight()</t>
+  </si>
+  <si>
+    <t>udpateUserExerciseOriginalWeight()</t>
+  </si>
+  <si>
+    <t>deleteDatabaseExerciseData()</t>
+  </si>
+  <si>
+    <t>deleteUserTrainingDays()</t>
+  </si>
+  <si>
+    <r>
+      <t>username= ricardoh password= Pass1 securityQuestionAnswer = pizza age= 22 weight= 180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>height= 70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>gender= male calorieGoal= maintain</t>
+    </r>
+  </si>
+  <si>
+    <t>newpassword = Pass2!</t>
+  </si>
+  <si>
+    <t>newWeight = 200</t>
+  </si>
+  <si>
+    <t>newHeight = 100</t>
+  </si>
+  <si>
+    <t>newGender = "Woman"</t>
+  </si>
+  <si>
+    <t>newCalorieGoal = "lose"</t>
+  </si>
+  <si>
+    <t>newReps = 30</t>
+  </si>
+  <si>
+    <t>newSets = 4</t>
+  </si>
+  <si>
+    <t>newMaxWeight = 200</t>
+  </si>
+  <si>
+    <t>newOriginalWeight = 100</t>
+  </si>
+  <si>
+    <t>userexerciseId = 3</t>
+  </si>
+  <si>
+    <t>userId = 1</t>
+  </si>
+  <si>
+    <t>deleteUserIdDatabaseExerciseData()</t>
+  </si>
+  <si>
+    <t>Check if data from userExerciseInfo is deleted pertaining to specific user</t>
+  </si>
+  <si>
+    <t>Check if data from userExerciseJunction is deleted pertaining to specific userexerciseId</t>
+  </si>
+  <si>
+    <t>deleteUserExerciseJunction()</t>
+  </si>
+  <si>
+    <t>userId =1</t>
+  </si>
+  <si>
+    <t>Information is compared, changes are pushed  to database.</t>
+  </si>
+  <si>
+    <t>Changes are pushed to database by loginlogout Controller function</t>
+  </si>
+  <si>
+    <t>Dashboard controller function logoutPushChangesToDatabase is called .</t>
+  </si>
+  <si>
+    <t>username, password, securityQuestionAnswer, age, 
+weight, height, gender, calorieGoal is inserted into User table.</t>
+  </si>
+  <si>
+    <t>trainingDay and userId is inserted into TrainingDay table</t>
+  </si>
+  <si>
+    <t>exerciseName and bodypart is inserted into Exercises table</t>
+  </si>
+  <si>
+    <t>exercises from text file are inserted into Exercises table</t>
+  </si>
+  <si>
+    <t>userId, sets, repetitions, maxWeight, originalWeight are
+ inserted into UserExerciseJunction table</t>
+  </si>
+  <si>
+    <r>
+      <t>userexerciseId=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exerciseId=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>trainingday=Wednesday</t>
+    </r>
+  </si>
+  <si>
+    <t>userexerciseId, exerciseId, trainingday are
+inserted into UserExerciseJunction table</t>
+  </si>
+  <si>
+    <t>Password is updated</t>
+  </si>
+  <si>
+    <t>age is updated</t>
+  </si>
+  <si>
+    <t>weight is updated</t>
+  </si>
+  <si>
+    <t>gender is updated</t>
+  </si>
+  <si>
+    <t>calorie goal is updated</t>
+  </si>
+  <si>
+    <t>sets of specific exercise is updated</t>
+  </si>
+  <si>
+    <t>reps of specific exercise is updated</t>
+  </si>
+  <si>
+    <t>max weight of specific exercise is updated</t>
+  </si>
+  <si>
+    <t>original weight of specific exercise is updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercise pertaining to userexerciseId is deleted </t>
+  </si>
+  <si>
+    <t>data pertaining to specific userexerciseId in userExerciseJunction is deleted</t>
+  </si>
+  <si>
+    <t>data pertaining to specific userexerciseId in userExerciseInfo is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training days of a specific user is deleted from database </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1527,8 +2040,13 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,12 +2056,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,7 +2163,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1672,7 +2184,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1686,10 +2197,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1699,7 +2210,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1751,8 +2261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2071,7 +2583,7 @@
   <dimension ref="A4:G24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G23"/>
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,11 +2626,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>247</v>
+      <c r="C5" s="29" t="s">
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -2135,19 +2647,19 @@
         <v>1.2</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>11</v>
@@ -2158,13 +2670,13 @@
         <v>1.3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>20</v>
@@ -2181,19 +2693,19 @@
         <v>1.4</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>11</v>
@@ -2204,19 +2716,19 @@
         <v>1.5</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>11</v>
@@ -2227,19 +2739,19 @@
         <v>1.6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
+        <v>181</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2256,13 +2768,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -2279,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -2302,7 +2814,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2325,13 +2837,13 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
@@ -2348,13 +2860,13 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>11</v>
@@ -2371,7 +2883,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -2394,13 +2906,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>11</v>
@@ -2411,19 +2923,19 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>11</v>
@@ -2434,19 +2946,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -2457,19 +2969,19 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>11</v>
@@ -2480,19 +2992,19 @@
         <v>1.17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" t="s">
         <v>184</v>
       </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>11</v>
@@ -2503,19 +3015,19 @@
         <v>1.18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -2526,19 +3038,19 @@
         <v>1.19</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
         <v>177</v>
       </c>
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>11</v>
@@ -2555,16 +3067,16 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>31</v>
+        <v>477</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2577,8 +3089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D98F85-DE49-3045-8B59-61FC79636BB8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2591,22 +3103,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2615,21 +3127,21 @@
         <v>10.1</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2638,21 +3150,21 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
         <v>322</v>
       </c>
-      <c r="D3" t="s">
-        <v>326</v>
-      </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2661,21 +3173,21 @@
         <v>10.3</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2684,21 +3196,21 @@
         <v>10.4</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2706,19 +3218,19 @@
       <c r="A6">
         <v>10.5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>310</v>
+      <c r="B6" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2726,22 +3238,22 @@
       <c r="A7">
         <v>10.6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>311</v>
+      <c r="B7" s="19" t="s">
+        <v>307</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2750,21 +3262,21 @@
         <v>10.7</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2773,22 +3285,22 @@
         <v>10.8</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>31</v>
+        <v>478</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +3313,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,24 +3327,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2840,22 +3352,22 @@
       <c r="A2">
         <v>11.1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>314</v>
+      <c r="B2" s="19" t="s">
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2864,21 +3376,21 @@
         <v>11.2</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2887,21 +3399,21 @@
         <v>11.3</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2910,21 +3422,21 @@
         <v>11.4</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2933,21 +3445,21 @@
         <v>11.5</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" t="s">
         <v>340</v>
       </c>
-      <c r="E6" t="s">
-        <v>344</v>
-      </c>
       <c r="F6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G6" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2956,21 +3468,21 @@
         <v>11.6</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" t="s">
         <v>341</v>
       </c>
-      <c r="E7" t="s">
-        <v>345</v>
-      </c>
       <c r="F7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2979,21 +3491,21 @@
         <v>11.7</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
-      </c>
-      <c r="G8" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3001,23 +3513,23 @@
       <c r="A9">
         <v>11.8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>319</v>
+      <c r="B9" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>31</v>
+        <v>262</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3029,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD772FFE-34B8-604A-BFE5-0F93E3F4DFB7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3042,22 +3554,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3065,22 +3577,22 @@
       <c r="A2">
         <v>12.1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>320</v>
+      <c r="B2" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3089,21 +3601,21 @@
         <v>12.2</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3112,21 +3624,21 @@
         <v>12.3</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>356</v>
+        <v>345</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3135,21 +3647,21 @@
         <v>12.4</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>357</v>
+        <v>345</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3158,21 +3670,21 @@
         <v>12.5</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>358</v>
+        <v>345</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>354</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3186,7 +3698,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3199,22 +3711,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3222,22 +3734,22 @@
       <c r="A2">
         <v>13.1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>362</v>
+      <c r="B2" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3245,22 +3757,22 @@
       <c r="A3">
         <v>13.2</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>363</v>
+      <c r="B3" s="41" t="s">
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>374</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3268,22 +3780,22 @@
       <c r="A4">
         <v>13.3</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>364</v>
+      <c r="B4" s="41" t="s">
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3292,21 +3804,21 @@
         <v>13.4</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G5" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3315,21 +3827,21 @@
         <v>13.5</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G6" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3338,21 +3850,21 @@
         <v>13.6</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3361,21 +3873,21 @@
         <v>13.7</v>
       </c>
       <c r="B8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" t="s">
         <v>368</v>
-      </c>
-      <c r="C8" t="s">
-        <v>372</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3383,22 +3895,871 @@
       <c r="A9">
         <v>13.8</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="B9" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35912DF3-8307-9548-BCA9-FA7339754DAC}">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="57.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A9A45A-B6C0-3E43-8AC9-9F347BC4E047}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70502F00-0AFA-544F-89BF-4A7A8519BED6}">
+  <dimension ref="B1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="64.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14" t="s">
+        <v>481</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+      <c r="F15" t="s">
+        <v>482</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F16" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" t="s">
+        <v>461</v>
+      </c>
+      <c r="E20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F22" t="s">
+        <v>489</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" t="s">
+        <v>489</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" t="s">
+        <v>464</v>
+      </c>
+      <c r="E24" t="s">
+        <v>490</v>
+      </c>
+      <c r="F24" t="s">
+        <v>490</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" t="s">
+        <v>491</v>
+      </c>
+      <c r="F25" t="s">
+        <v>491</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" t="s">
+        <v>492</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F28" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" t="s">
+        <v>456</v>
+      </c>
+      <c r="D29" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" t="s">
+        <v>494</v>
+      </c>
+      <c r="F29" t="s">
+        <v>494</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" t="s">
+        <v>469</v>
+      </c>
+      <c r="E30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" t="s">
+        <v>496</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E33" t="s">
+        <v>498</v>
+      </c>
+      <c r="F33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>474</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E34" t="s">
+        <v>497</v>
+      </c>
+      <c r="F34" t="s">
+        <v>497</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" t="s">
+        <v>499</v>
+      </c>
+      <c r="F35" t="s">
+        <v>499</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3426,25 +4787,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3452,22 +4813,22 @@
       <c r="A2">
         <v>2.1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3475,22 +4836,22 @@
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3498,22 +4859,22 @@
       <c r="A4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3521,22 +4882,22 @@
       <c r="A5">
         <v>2.4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3544,22 +4905,22 @@
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="B6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3567,22 +4928,22 @@
       <c r="A7">
         <v>2.6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3590,22 +4951,22 @@
       <c r="A8">
         <v>2.7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3634,25 +4995,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3660,22 +5021,22 @@
       <c r="A2">
         <v>3.1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3683,22 +5044,22 @@
       <c r="A3">
         <v>3.2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3706,22 +5067,22 @@
       <c r="A4">
         <v>3.3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3729,22 +5090,22 @@
       <c r="A5">
         <v>3.4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3752,22 +5113,22 @@
       <c r="A6">
         <v>3.5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3775,22 +5136,22 @@
       <c r="A7">
         <v>3.6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3798,68 +5159,68 @@
       <c r="A8">
         <v>3.7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>3.8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3888,173 +5249,173 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
         <v>4.2</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="17">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="18">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
-        <v>4.3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
       </c>
       <c r="D4">
         <v>175</v>
       </c>
       <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
       <c r="D5">
         <v>70</v>
       </c>
       <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>4.5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>142</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>153</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>145</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>4.7</v>
+      </c>
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="D7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
         <v>146</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
-        <v>4.7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4063,21 +5424,21 @@
         <v>4.8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4086,21 +5447,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4109,21 +5470,21 @@
         <v>4.101</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4132,21 +5493,21 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4155,21 +5516,21 @@
         <v>4.12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4177,22 +5538,22 @@
       <c r="A14">
         <v>4.13</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>249</v>
+      <c r="B14" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>250</v>
+        <v>182</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4201,21 +5562,21 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>107</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4229,7 +5590,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G14"/>
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4244,202 +5605,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="C2" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="C2" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B6" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>160</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>5.2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>162</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>5.3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>5.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
-        <v>5.2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G9" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>163</v>
       </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
-        <v>5.3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>195</v>
       </c>
-      <c r="F8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
-        <v>5.4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>196</v>
       </c>
-      <c r="F9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
-        <v>5.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>197</v>
       </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
-        <v>5.6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
-        <v>5.7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4448,21 +5809,21 @@
         <v>5.8</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4471,22 +5832,22 @@
         <v>5.9</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>31</v>
+        <v>478</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4499,8 +5860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBECEF-586C-E445-B3B4-3FF4ADE3D7AC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="D2" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4513,202 +5874,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="255" x14ac:dyDescent="0.2">
+      <c r="C2" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>6.1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>6.2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="34">
+        <v>6.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>6.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>6.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="255" x14ac:dyDescent="0.2">
-      <c r="C2" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
-        <v>6.1</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="E9" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="34">
+        <v>6.6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="B11" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>6.2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
-        <v>6.3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
-        <v>6.4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>218</v>
       </c>
-      <c r="D8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>258</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
-        <v>6.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
-        <v>6.6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
-        <v>6.7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4717,21 +6078,21 @@
         <v>6.8</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4740,45 +6101,45 @@
         <v>6.9</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.101</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>31</v>
+        <v>479</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4798,29 +6159,29 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4829,21 +6190,21 @@
         <v>7.1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4851,22 +6212,22 @@
       <c r="A3">
         <v>7.2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>231</v>
+      <c r="B3" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4875,21 +6236,21 @@
         <v>7.3</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>233</v>
+        <v>116</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4898,21 +6259,21 @@
         <v>7.4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>234</v>
+        <v>117</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4921,21 +6282,21 @@
         <v>7.5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>235</v>
+        <v>118</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4944,21 +6305,21 @@
         <v>7.6</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>227</v>
+        <v>119</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4967,21 +6328,21 @@
         <v>7.7</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>228</v>
+        <v>120</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4990,21 +6351,21 @@
         <v>7.8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
         <v>229</v>
       </c>
-      <c r="D9" t="s">
-        <v>232</v>
-      </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
-      </c>
-      <c r="G9" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5032,25 +6393,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5059,21 +6420,21 @@
         <v>8.1</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="29">
+        <v>287</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="27">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5082,21 +6443,21 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="29">
+        <v>288</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="27">
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5105,21 +6466,21 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="29">
+        <v>289</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="27">
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5128,21 +6489,21 @@
         <v>8.4</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5151,21 +6512,21 @@
         <v>8.4</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
         <v>279</v>
       </c>
-      <c r="E6" t="s">
-        <v>283</v>
-      </c>
       <c r="F6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5174,21 +6535,21 @@
         <v>8.6</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
         <v>280</v>
       </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
       <c r="F7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5197,21 +6558,21 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5220,21 +6581,21 @@
         <v>8.9</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5243,21 +6604,21 @@
         <v>8.1010000000000009</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5265,19 +6626,19 @@
       <c r="A11">
         <v>8.1199999999999992</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="B11" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5286,21 +6647,21 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G12" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5308,22 +6669,22 @@
       <c r="A13">
         <v>8.14</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
         <v>286</v>
       </c>
-      <c r="D13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" t="s">
-        <v>290</v>
-      </c>
       <c r="F13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5332,26 +6693,26 @@
         <v>8.15</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5375,22 +6736,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5399,21 +6760,21 @@
         <v>9.1</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="38">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="40">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
       <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5422,21 +6783,21 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="27">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="29">
-        <v>175</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
       <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5445,21 +6806,21 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="27">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="29">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
       <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5468,21 +6829,21 @@
         <v>9.4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5491,21 +6852,21 @@
         <v>9.5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5514,21 +6875,21 @@
         <v>9.6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5537,21 +6898,21 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>302</v>
+        <v>104</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5559,22 +6920,22 @@
       <c r="A9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>299</v>
+      <c r="B9" s="30" t="s">
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>250</v>
+        <v>182</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5583,21 +6944,21 @@
         <v>9.9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
       <c r="F10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5606,31 +6967,31 @@
         <v>9.1010000000000009</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
-      <c r="G13" s="41"/>
+      <c r="G13" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
